--- a/Documentatie Fifa/Fase 1/Logboek.xlsx
+++ b/Documentatie Fifa/Fase 1/Logboek.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dion Rodie\Desktop\Radius\Projects\Csharpfifa\FifaCsharp\Documentatie Fifa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dion Rodie\Desktop\Radius\Projects\Csharpfifa\FifaCsharp\Documentatie Fifa\Fase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Tim heeft moeite met mee komen</t>
+  </si>
+  <si>
+    <t>Iedereen heeft goed gewerkt</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -505,7 +508,21 @@
       <c r="A4" s="3">
         <v>42844</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
@@ -729,19 +746,19 @@
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <f>SUM(B3:B44)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <f>SUM(C3:C44)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <f>SUM(D3:D44)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <f>SUM(E3:E44)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -752,7 +769,7 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f>SUM(B47:E47)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie Fifa/Fase 1/Logboek.xlsx
+++ b/Documentatie Fifa/Fase 1/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Datum</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Iedereen heeft goed gewerkt</t>
+  </si>
+  <si>
+    <t>Tim niet productief gewerkt, minder youtube filmpjes kijken</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -456,7 +459,7 @@
     <col min="2" max="3" width="30.41796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.68359375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.1015625" customWidth="1"/>
+    <col min="6" max="7" width="53.20703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -528,7 +531,21 @@
       <c r="A5" s="3">
         <v>42845</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
@@ -746,19 +763,19 @@
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <f>SUM(B3:B44)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <f>SUM(C3:C44)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <f>SUM(D3:D44)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <f>SUM(E3:E44)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -769,7 +786,7 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f>SUM(B47:E47)</f>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie Fifa/Fase 1/Logboek.xlsx
+++ b/Documentatie Fifa/Fase 1/Logboek.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Tim niet productief gewerkt, minder youtube filmpjes kijken</t>
+  </si>
+  <si>
+    <t>#Meelift gedrag</t>
   </si>
 </sst>
 </file>
@@ -161,10 +164,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Berekening" xfId="2" builtinId="22"/>
@@ -450,7 +451,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -485,7 +486,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
@@ -500,7 +501,7 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
       <c r="F3" t="s">
@@ -561,8 +562,21 @@
       <c r="A8" s="3">
         <v>42856</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
@@ -763,19 +777,19 @@
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <f>SUM(B3:B44)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <f>SUM(C3:C44)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <f>SUM(D3:D44)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <f>SUM(E3:E44)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
@@ -786,7 +800,7 @@
     <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <f>SUM(B47:E47)</f>
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie Fifa/Fase 1/Logboek.xlsx
+++ b/Documentatie Fifa/Fase 1/Logboek.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dion Rodie\Desktop\Radius\Projects\Csharpfifa\FifaCsharp\Documentatie Fifa\Fase 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\P4\FifaCsharp\Documentatie Fifa\Fase 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,8 +77,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +97,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,13 +149,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -451,19 +442,19 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1015625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53.20703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,12 +474,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>42843</v>
       </c>
@@ -501,14 +492,14 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>42844</v>
       </c>
@@ -528,44 +519,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>42845</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>42846</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>42856</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8">
@@ -578,185 +580,292 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>42857</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>42858</v>
       </c>
       <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>42859</v>
       </c>
       <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>42863</v>
       </c>
       <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>42864</v>
       </c>
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>42865</v>
       </c>
       <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>42866</v>
       </c>
       <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>42867</v>
       </c>
       <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>42870</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>42871</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>42872</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>42873</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>42874</v>
       </c>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>42877</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>42878</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>42879</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>42884</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>42885</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>42886</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>42887</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>42888</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>42892</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>42893</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>42894</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>42895</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>42898</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>42899</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42901</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>42902</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -773,34 +882,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <f>SUM(B3:B44)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <f>SUM(C3:C44)</f>
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D47">
         <f>SUM(D3:D44)</f>
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="E47">
         <f>SUM(E3:E44)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>SUM(B47:E47)</f>
-        <v>64</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
